--- a/project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao4\IdeaProjects\SE2122-57672-58175-57957-58210-57911\project\Phase 2\Sprint1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0E4A0-BD2F-4770-85A6-2C2502F7B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Todo</t>
   </si>
@@ -42,44 +36,17 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Subdivide functionality 1 into subtasks.</t>
+    <t>Implement functionality 2 fully</t>
   </si>
   <si>
-    <t>Subdivide functionality 2 into subtasks.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Know how to compile </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JabRef </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in each computer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +61,16 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,12 +85,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -153,10 +119,77 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -167,165 +200,59 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -336,78 +263,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -501,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,50 +584,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="13" t="s">
+    <row r="3" spans="3:18" ht="15" thickBot="1"/>
+    <row r="4" spans="3:18" ht="15" thickBot="1">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>5</v>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -732,143 +638,129 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="3:18" ht="15" thickBot="1">
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="3:18">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="3:18">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
+  <mergeCells count="23">
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H15" xr:uid="{7956206A-2EFF-4B64-A1C0-B0E2EBA19354}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H14">
       <formula1>"Not yet started,In Progress,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Todo</t>
   </si>
@@ -41,12 +41,27 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Implement functionality 1 fully</t>
+  </si>
+  <si>
+    <t>Write User Stories &amp; Use Cases</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Write MergeDoc</t>
+  </si>
+  <si>
+    <t>Write review logs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +90,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +110,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -237,21 +264,41 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -264,14 +311,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,32 +355,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -584,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:R18"/>
+  <dimension ref="C3:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -606,28 +671,28 @@
   <sheetData>
     <row r="3" spans="3:18" ht="15" thickBot="1"/>
     <row r="4" spans="3:18" ht="15" thickBot="1">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="3:18">
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="23"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -638,129 +703,223 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:18" ht="15" thickBot="1">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="3:18">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="18" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="3:18">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="3:18">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="3:18">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="3:18">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="3:18" ht="15" thickBot="1">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="3:18">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="3:18">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="3:18" ht="14" customHeight="1">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:18">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="31">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G12:H19 G5:G10 H5">
       <formula1>"Not yet started,In Progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
